--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,22 +26,22 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">продукт</t>
   </si>
   <si>
     <t xml:space="preserve">макароны</t>
   </si>
   <si>
-    <t xml:space="preserve">name1</t>
+    <t xml:space="preserve">продукт 1</t>
   </si>
   <si>
     <t xml:space="preserve">сыр</t>
   </si>
   <si>
-    <t xml:space="preserve">sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тар-тар</t>
+    <t xml:space="preserve">соус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грибной</t>
   </si>
   <si>
     <t xml:space="preserve">url</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">data</t>
   </si>
   <si>
-    <t xml:space="preserve">ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link:Data.main.name1</t>
+    <t xml:space="preserve">ссылка на продукт 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link:Data.main.продукт 1</t>
   </si>
 </sst>
 </file>
@@ -250,15 +250,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -314,15 +314,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
